--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Cronograma.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abelx\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abelx\OneDrive\Documentos\GitHub\Captson_008D-Proyecto-College-Choice-Helper\Fase 2\Evidencias Proyecto\Evidencias de documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821BC7C6-2538-4DEB-8DF0-0C29CE2865E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B30A4-DE8E-4698-9103-84B1520C0F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,34 +216,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W61"/>
+  <dimension ref="A2:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,65 +531,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="7" t="s">
+      <c r="U3" s="4"/>
+      <c r="V3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="7"/>
+      <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -647,16 +637,15 @@
       <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -671,19 +660,18 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="7" t="s">
+      <c r="U5" s="5"/>
+      <c r="V5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="7"/>
+      <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -698,16 +686,15 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -722,15 +709,13 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="5"/>
-      <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -745,16 +730,15 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -769,14 +753,13 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -791,16 +774,15 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -815,14 +797,13 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -837,17 +818,16 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -861,15 +841,14 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -883,18 +862,17 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -907,18 +885,17 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -929,19 +906,18 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -953,19 +929,18 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -975,19 +950,18 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -999,19 +973,18 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="12"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1021,19 +994,18 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1045,19 +1017,18 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="12"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1067,171 +1038,163 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="8"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="8"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="8"/>
-    </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1240,19 +1203,18 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="5"/>
-    </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="1"/>
@@ -1263,19 +1225,18 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="6"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="8"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1284,26 +1245,25 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="5"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="8"/>
-    </row>
-    <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="33" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1316,15 +1276,14 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+    </row>
+    <row r="34" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1337,17 +1296,16 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="8"/>
-    </row>
-    <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="13"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1360,15 +1318,14 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="8"/>
-    </row>
-    <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+    </row>
+    <row r="36" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1381,21 +1338,20 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+    </row>
+    <row r="37" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -1404,19 +1360,18 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+    </row>
+    <row r="38" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -1425,10 +1380,9 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="8"/>
-    </row>
-    <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="39" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="1"/>
@@ -1439,7 +1393,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="13"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -1448,10 +1402,9 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="5"/>
-    </row>
-    <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    </row>
+    <row r="40" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1460,7 +1413,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="5"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -1469,10 +1422,9 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="8"/>
-    </row>
-    <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+    </row>
+    <row r="41" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="1"/>
@@ -1483,7 +1435,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="13"/>
+      <c r="K41" s="6"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -1492,10 +1444,9 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="8"/>
-    </row>
-    <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+    </row>
+    <row r="42" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1504,7 +1455,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="5"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -1513,10 +1464,9 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+    </row>
+    <row r="43" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="1"/>
@@ -1528,18 +1478,17 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="8"/>
-    </row>
-    <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+    </row>
+    <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1548,7 +1497,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="12"/>
+      <c r="K44" s="5"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -1557,10 +1506,9 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="8"/>
-    </row>
-    <row r="45" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="45" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="1"/>
@@ -1576,14 +1524,13 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="5"/>
-    </row>
-    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
+    </row>
+    <row r="46" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1597,13 +1544,12 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="8"/>
-    </row>
-    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="47" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="1"/>
@@ -1615,18 +1561,16 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="13"/>
+      <c r="R47" s="6"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="8"/>
-    </row>
-    <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
+    </row>
+    <row r="48" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1639,15 +1583,14 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="O48" s="5"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-      <c r="T48" s="5"/>
-    </row>
-    <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+    </row>
+    <row r="49" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="1"/>
@@ -1658,7 +1601,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="13"/>
+      <c r="K49" s="6"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -1667,10 +1610,9 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="8"/>
-    </row>
-    <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
+    </row>
+    <row r="50" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1679,7 +1621,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="12"/>
+      <c r="K50" s="5"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -1688,10 +1630,9 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="8"/>
-    </row>
-    <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+    </row>
+    <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="1"/>
@@ -1702,7 +1643,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="13"/>
+      <c r="K51" s="6"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -1711,10 +1652,9 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="5"/>
-    </row>
-    <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
+    </row>
+    <row r="52" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1723,7 +1663,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="12"/>
+      <c r="K52" s="5"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -1732,10 +1672,9 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="8"/>
-    </row>
-    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+    </row>
+    <row r="53" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="1"/>
@@ -1746,7 +1685,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="13"/>
+      <c r="K53" s="6"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -1755,10 +1694,9 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="8"/>
-    </row>
-    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
+    </row>
+    <row r="54" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1767,18 +1705,18 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="12"/>
+      <c r="K54" s="5"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="Q54" s="5"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+    <row r="55" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="1"/>
@@ -1797,10 +1735,10 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="13"/>
-    </row>
-    <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
+      <c r="S55" s="6"/>
+    </row>
+    <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1819,23 +1757,25 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="V3:W3"/>
@@ -1852,23 +1792,6 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="C2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
